--- a/app/data/coffee.xlsx
+++ b/app/data/coffee.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7076" uniqueCount="6852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7088" uniqueCount="6864">
   <si>
     <t xml:space="preserve">Café | INDICADOR DO CAFÉ ARÁBICA CEPEA/ESALQ</t>
   </si>
@@ -20577,6 +20577,42 @@
   </si>
   <si>
     <t xml:space="preserve">396,92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.167,87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">394,59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.147,51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">390,38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.061,95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">374,70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.969,45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356,59</t>
   </si>
 </sst>
 </file>
@@ -20723,7 +20759,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2360"/>
+  <dimension ref="A1:J2364"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -46707,6 +46743,50 @@
       </c>
       <c r="C2360" s="6" t="s">
         <v>6851</v>
+      </c>
+    </row>
+    <row r="2361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2361" s="6" t="s">
+        <v>6852</v>
+      </c>
+      <c r="B2361" s="6" t="s">
+        <v>6853</v>
+      </c>
+      <c r="C2361" s="6" t="s">
+        <v>6854</v>
+      </c>
+    </row>
+    <row r="2362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2362" s="6" t="s">
+        <v>6855</v>
+      </c>
+      <c r="B2362" s="6" t="s">
+        <v>6856</v>
+      </c>
+      <c r="C2362" s="6" t="s">
+        <v>6857</v>
+      </c>
+    </row>
+    <row r="2363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2363" s="6" t="s">
+        <v>6858</v>
+      </c>
+      <c r="B2363" s="6" t="s">
+        <v>6859</v>
+      </c>
+      <c r="C2363" s="6" t="s">
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="2364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2364" s="6" t="s">
+        <v>6861</v>
+      </c>
+      <c r="B2364" s="6" t="s">
+        <v>6862</v>
+      </c>
+      <c r="C2364" s="6" t="s">
+        <v>6863</v>
       </c>
     </row>
   </sheetData>
